--- a/biology/Médecine/Acide_bempédoïque/Acide_bempédoïque.xlsx
+++ b/biology/Médecine/Acide_bempédoïque/Acide_bempédoïque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_bemp%C3%A9do%C3%AFque</t>
+          <t>Acide_bempédoïque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acide bempédoïque est une molécule inhibitrice de l'ATP citrate lyase utilisé dans le traitement de l'hypercholestérolémie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_bemp%C3%A9do%C3%AFque</t>
+          <t>Acide_bempédoïque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une prodrogue qui est activée par l'ACSVL1. L'inhibition de l'ATK citrate lyase entraîne une augmentation de l'expression du récepteurs aux LDL cholestérol, favorisant la dégradation de ces derniers[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une prodrogue qui est activée par l'ACSVL1. L'inhibition de l'ATK citrate lyase entraîne une augmentation de l'expression du récepteurs aux LDL cholestérol, favorisant la dégradation de ces derniers.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acide_bemp%C3%A9do%C3%AFque</t>
+          <t>Acide_bempédoïque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administré seul, l'acide bempédoïque permet de réduire d'un peu plus de 30 % le taux de LDL cholestérol[2]. En association avec une statine, la diminution est d'environ 16 %[3].
-Il permet également la diminution du taux de la CRP, du cholestérol total et de l'apolipoprotéine B[4].
-Chez les patients intolérants aux statines, cet acide permet la réduction du risque de survenue d'une maladie cardio-vasculaire[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administré seul, l'acide bempédoïque permet de réduire d'un peu plus de 30 % le taux de LDL cholestérol. En association avec une statine, la diminution est d'environ 16 %.
+Il permet également la diminution du taux de la CRP, du cholestérol total et de l'apolipoprotéine B.
+Chez les patients intolérants aux statines, cet acide permet la réduction du risque de survenue d'une maladie cardio-vasculaire.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acide_bemp%C3%A9do%C3%AFque</t>
+          <t>Acide_bempédoïque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plus fréquents effets secondaires de l'acide bempédoïque sont les infections urinaires et l'hyperuricémie[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plus fréquents effets secondaires de l'acide bempédoïque sont les infections urinaires et l'hyperuricémie.
 </t>
         </is>
       </c>
